--- a/dsgen/data/sample_data.xlsx
+++ b/dsgen/data/sample_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -501,47 +501,47 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Основы DML</t>
+          <t>Основы</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>простое</t>
+          <t>Beginner</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>SELECT с одним условием</t>
+          <t>Простой SELECT</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>извлечение данных</t>
+          <t>извлечение</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Поиск по одному критерию</t>
+          <t>Выборка всех данных</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Найти всех сотрудников с зарплатой выше 50000.</t>
+          <t>Показать всех сотрудников.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>CREATE TABLE employees (id INT PRIMARY KEY, name VARCHAR(100), salary INT, dept_id INT); INSERT INTO employees VALUES (1, 'Иван Иванов', 60000, 1), (2, 'Петр Петров', 45000, 1);</t>
+          <t>CREATE TABLE employees(id INT, name VARCHAR(50), department VARCHAR(50));</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>SELECT * FROM employees WHERE salary &gt; 50000;</t>
+          <t>SELECT * FROM employees;</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Используется оператор SELECT для выбора всех полей из таблицы employees, где значение в колонке salary больше 50000.</t>
+          <t>Простейший запрос на выборку всех столбцов и строк из таблицы.</t>
         </is>
       </c>
     </row>
@@ -551,52 +551,52 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>lab2</t>
+          <t>lab1</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Соединение таблиц</t>
+          <t>Основы</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>среднее</t>
+          <t>Beginner</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>INNER JOIN двух таблиц</t>
+          <t>SELECT с WHERE</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>извлечение данных</t>
+          <t>извлечение</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Получение данных из связанных таблиц</t>
+          <t>Фильтрация по текстовому значению</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Вывести имена сотрудников и названия их отделов.</t>
+          <t>Найти всех сотрудников из отдела "IT".</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>CREATE TABLE employees (id INT PRIMARY KEY, name VARCHAR(100), dept_id INT); CREATE TABLE departments (id INT PRIMARY KEY, dept_name VARCHAR(100)); INSERT INTO employees VALUES (1, 'Иван Иванов', 1), (2, 'Анна Кузнецова', 2); INSERT INTO departments VALUES (1, 'IT'), (2, 'Бухгалтерия');</t>
+          <t>CREATE TABLE employees(id INT, name VARCHAR(50), department VARCHAR(50));</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>SELECT e.name, d.dept_name FROM employees e JOIN departments d ON e.dept_id = d.id;</t>
+          <t>SELECT * FROM employees WHERE department = 'IT';</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Объединяем таблицы employees и departments по ключу dept_id, чтобы сопоставить сотрудника с его отделом, и выбираем их имена.</t>
+          <t>Запрос с фильтрацией строк по точному совпадению в текстовом поле.</t>
         </is>
       </c>
     </row>
@@ -611,43 +611,982 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Основы DDL</t>
+          <t>Основы</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>базовая DDL</t>
+          <t>Beginner</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Создание простой таблицы</t>
+          <t>SELECT с ORDER BY</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>создание структуры</t>
+          <t>извлечение</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Команда для создания таблицы для хранения продуктов</t>
+          <t>Сортировка данных</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Создайте таблицу 'products' с полями: id (целочисленный, первичный ключ), name (текст до 255 символов) и price (число с 2 знаками после запятой).</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr"/>
+          <t>Вывести список всех продуктов, отсортированный по названию в алфавитном порядке.</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>CREATE TABLE products(id INT, name VARCHAR(100), price DECIMAL(10,2));</t>
+        </is>
+      </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>CREATE TABLE products (id INT PRIMARY KEY, name VARCHAR(255), price DECIMAL(10, 2));</t>
+          <t>SELECT * FROM products ORDER BY name ASC;</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Эта команда использует оператор CREATE TABLE для определения новой таблицы с тремя столбцами, указывая для каждого тип данных и ограничения.</t>
+          <t>Использование ORDER BY для сортировки результатов запроса.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>lab1</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Основы</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Beginner</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>INSERT INTO</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>модификация</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Добавление новой записи</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Добавить нового клиента "Иван Петров" в таблицу клиентов.</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>CREATE TABLE clients(id INT, name VARCHAR(100));</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>INSERT INTO clients (id, name) VALUES (101, 'Иван Петров');</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>Команда INSERT INTO используется для добавления одной или нескольких строк в таблицу.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>lab1</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Основы</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Beginner</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>UPDATE</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>модификация</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Обновление записи</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Изменить город клиента с ID 7 на "Москва".</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>CREATE TABLE clients(id INT, name VARCHAR(100), city VARCHAR(50));</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>UPDATE clients SET city = 'Москва' WHERE id = 7;</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>Команда UPDATE используется для изменения существующих записей в таблице.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>lab2</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Соединения и агрегация</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Intermediate</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>INNER JOIN</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>извлечение</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Соединение двух таблиц</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Показать заказы и имена клиентов, которые их сделали.</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>CREATE TABLE clients(id INT, name VARCHAR(50)); CREATE TABLE orders(order_id INT, client_id INT);</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>SELECT c.name, o.order_id FROM clients c JOIN orders o ON c.id = o.client_id;</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>INNER JOIN используется для выборки записей, имеющих совпадающие значения в обеих таблицах.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>lab2</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Соединения и агрегация</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Intermediate</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>LEFT JOIN</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>извлечение</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Левое соединение</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Вывести всех клиентов и их заказы, даже если у клиента нет заказов.</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>CREATE TABLE clients(id INT, name VARCHAR(50)); CREATE TABLE orders(order_id INT, client_id INT);</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>SELECT c.name, o.order_id FROM clients c LEFT JOIN orders o ON c.id = o.client_id;</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>LEFT JOIN возвращает все записи из левой таблицы и совпадающие записи из правой таблицы.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>lab2</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Соединения и агрегация</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Intermediate</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>GROUP BY и COUNT</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>агрегация</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Подсчет с группировкой</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Посчитать, сколько заказов сделал каждый клиент.</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>CREATE TABLE orders(order_id INT, client_id INT);</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>SELECT client_id, COUNT(order_id) as order_count FROM orders GROUP BY client_id;</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>GROUP BY группирует строки с одинаковыми значениями в сводные строки.</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>lab2</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Соединения и агрегация</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Intermediate</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>GROUP BY и AVG</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>агрегация</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Среднее значение с группировкой</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Рассчитать среднюю стоимость заказа для каждого города.</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>CREATE TABLE orders(order_id INT, city VARCHAR(50), amount DECIMAL(10,2));</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>SELECT city, AVG(amount) as avg_amount FROM orders GROUP BY city;</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>Использование агрегатной функции AVG для расчета среднего значения.</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>lab2</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Соединения и агрегация</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Intermediate</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Подзапрос в WHERE</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>извлечение</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Фильтрация с подзапросом</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Найти всех клиентов, которые сделали хотя бы один заказ.</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>CREATE TABLE clients(id INT, name VARCHAR(50)); CREATE TABLE orders(order_id INT, client_id INT);</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>SELECT name FROM clients WHERE id IN (SELECT client_id FROM orders);</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>Подзапрос используется для получения списка ID клиентов, которые затем используются для фильтрации основной таблицы.</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>lab3</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Сложные запросы</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Advanced</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Оконная функция ROW_NUMBER</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>аналитика</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Ранжирование данных</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Пронумеровать заказы каждого клиента по дате (от старых к новым).</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>CREATE TABLE orders(order_id INT, client_id INT, order_date DATE);</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>SELECT *, ROW_NUMBER() OVER(PARTITION BY client_id ORDER BY order_date) as rn FROM orders;</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>ROW_NUMBER() присваивает уникальный номер каждой строке в рамках раздела (partition).</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>lab3</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Сложные запросы</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Advanced</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Оконная функция SUM</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>аналитика</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Сумма с накоплением</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Рассчитать нарастающий итог продаж по дням.</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>CREATE TABLE sales(sale_date DATE, amount DECIMAL(10,2));</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>SELECT sale_date, amount, SUM(amount) OVER (ORDER BY sale_date) as cumulative_sum FROM sales;</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>Оконная функция SUM с ORDER BY позволяет рассчитать сумму с накоплением.</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>lab3</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Сложные запросы</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Advanced</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Общее табличное выражение (CTE)</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>извлечение</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Использование WITH</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Используя CTE, найти отделы с более чем 5 сотрудниками.</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>CREATE TABLE employees(id INT, department_id INT);</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>WITH DepartmentCounts AS (SELECT department_id, COUNT(*) as employee_count FROM employees GROUP BY department_id) SELECT department_id FROM DepartmentCounts WHERE employee_count &gt; 5;</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>CTE (WITH clause) позволяет определить временный именованный набор результатов для использования в последующем запросе.</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>lab3</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Сложные запросы</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Advanced</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Рекурсивное CTE</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>извлечение</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Иерархический запрос</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Вывести иерархию сотрудников (менеджер -&gt; подчиненный).</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>CREATE TABLE employees(id INT, name VARCHAR(50), manager_id INT);</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>WITH RECURSIVE EmployeeHierarchy AS (SELECT id, name, manager_id, 0 as level FROM employees WHERE manager_id IS NULL UNION ALL SELECT e.id, e.name, e.manager_id, eh.level + 1 FROM employees e JOIN EmployeeHierarchy eh ON e.manager_id = eh.id) SELECT * FROM EmployeeHierarchy;</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>Рекурсивный CTE используется для обхода иерархических или древовидных структур данных.</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>lab3</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Сложные запросы</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Advanced</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Оператор PIVOT</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>трансформация</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Преобразование строк в столбцы</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Представить данные о продажах по годам в виде таблицы, где строки - это товары, а столбцы - годы.</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>CREATE TABLE sales(product VARCHAR(50), year INT, amount INT);</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>SELECT * FROM sales PIVOT (SUM(amount) FOR year IN (2020, 2021, 2022));</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>PIVOT поворачивает таблицу, преобразуя уникальные значения из одного столбца в несколько столбцов в выводе.</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>lab4</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Оптимизация и администрирование</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Expert</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Создание индекса</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>DDL / Оптимизация</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Ускорение запросов</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Создать неуникальный индекс для столбца `city` в таблице `addresses` для ускорения поиска.</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>CREATE TABLE addresses(id INT, city VARCHAR(100), street VARCHAR(200));</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>CREATE INDEX idx_addresses_city ON addresses(city);</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>Индексы используются для быстрого поиска строк с определенными значениями в столбце.</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>lab4</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Оптимизация и администрирование</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Expert</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Создание процедуры</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>PL/SQL</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Хранимые процедуры</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Создать хранимую процедуру для добавления нового сотрудника, которая принимает имя и отдел.</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>CREATE TABLE employees(id INT, name VARCHAR(50), department VARCHAR(50));</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>CREATE PROCEDURE AddEmployee(IN emp_name VARCHAR(50), IN dept_name VARCHAR(50)) BEGIN INSERT INTO employees(name, department) VALUES (emp_name, dept_name); END;</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>Хранимые процедуры позволяют инкапсулировать логику на стороне сервера базы данных.</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>lab4</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Оптимизация и администрирование</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Expert</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Создание триггера</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>PL/SQL</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Автоматизация действий</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Создать триггер, который будет записывать в лог-таблицу старые данные перед их обновлением в таблице `products`.</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>CREATE TABLE products(id INT, price DECIMAL(10,2)); CREATE TABLE price_log(product_id INT, old_price DECIMAL(10,2), change_date DATE);</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>CREATE TRIGGER before_product_update BEFORE UPDATE ON products FOR EACH ROW BEGIN INSERT INTO price_log(product_id, old_price, change_date) VALUES (OLD.id, OLD.price, NOW()); END;</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>Триггеры - это специальные процедуры, которые автоматически выполняются в ответ на определенные события (INSERT, UPDATE, DELETE).</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>lab4</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Оптимизация и администрирование</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Expert</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Управление транзакциями</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>TCL</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Атомарные операции</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Написать транзакцию, которая переводит 100 у.е. со счета A на счет B. Если что-то идет не так, все изменения должны быть отменены.</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>CREATE TABLE accounts(id VARCHAR(1), balance DECIMAL(10,2));</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>START TRANSACTION; UPDATE accounts SET balance = balance - 100 WHERE id = 'A'; UPDATE accounts SET balance = balance + 100 WHERE id = 'B'; COMMIT;</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>Транзакции гарантируют, что серия операций будет выполнена как единое целое (атомарно).</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>lab4</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Оптимизация и администрирование</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Expert</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Анализ плана запроса</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Оптимизация</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Профилирование запроса</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Получить план выполнения для запроса, выбирающего всех клиентов из Москвы.</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>CREATE TABLE clients(id INT, name VARCHAR(100), city VARCHAR(50));</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>EXPLAIN SELECT * FROM clients WHERE city = 'Москва';</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>Команда EXPLAIN показывает, как база данных собирается выполнить запрос, что помогает находить узкие места в производительности.</t>
         </is>
       </c>
     </row>

--- a/dsgen/data/sample_data.xlsx
+++ b/dsgen/data/sample_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K21"/>
+  <dimension ref="A1:O21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,15 +476,35 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
+          <t>sql</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>prompt_variation_1</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>sql_variation_1</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>prompt_variation_2</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>sql_variation_2</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
           <t>sql_context</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>sql</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>sql_explanation</t>
         </is>
@@ -531,15 +551,35 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
+          <t>SELECT * FROM employees;</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Вывести список всех работников.</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>SELECT id, name, department FROM employees;</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>Отобразить полную информацию о сотрудниках.</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>SELECT * FROM employees e;</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
           <t>CREATE TABLE employees(id INT, name VARCHAR(50), department VARCHAR(50));</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>SELECT * FROM employees;</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>Простейший запрос на выборку всех столбцов и строк из таблицы.</t>
         </is>
@@ -586,15 +626,35 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
+          <t>SELECT * FROM employees WHERE department = 'IT';</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>Показать работников IT-отдела.</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>SELECT * FROM employees e WHERE e.department = 'IT';</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>Кто работает в департаменте "IT"?</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>SELECT name FROM employees WHERE department = 'IT';</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
           <t>CREATE TABLE employees(id INT, name VARCHAR(50), department VARCHAR(50));</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>SELECT * FROM employees WHERE department = 'IT';</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>Запрос с фильтрацией строк по точному совпадению в текстовом поле.</t>
         </is>
@@ -641,15 +701,35 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
+          <t>SELECT * FROM products ORDER BY name ASC;</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>Отсортировать продукты по имени.</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>SELECT * FROM products ORDER BY name;</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>Показать продукты, упорядоченные по названию.</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>SELECT name, price FROM products ORDER BY name ASC;</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
           <t>CREATE TABLE products(id INT, name VARCHAR(100), price DECIMAL(10,2));</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>SELECT * FROM products ORDER BY name ASC;</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
+      <c r="O4" t="inlineStr">
         <is>
           <t>Использование ORDER BY для сортировки результатов запроса.</t>
         </is>
@@ -696,15 +776,35 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
+          <t>INSERT INTO clients (id, name) VALUES (101, 'Иван Петров');</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>Вставить запись о клиенте "Иван Петров" с ID 101.</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>INSERT INTO clients VALUES (101, 'Иван Петров');</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>Зарегистрировать нового клиента "Иван Петров".</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>INSERT INTO clients (name, id) VALUES ('Иван Петров', 101);</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
           <t>CREATE TABLE clients(id INT, name VARCHAR(100));</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>INSERT INTO clients (id, name) VALUES (101, 'Иван Петров');</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
+      <c r="O5" t="inlineStr">
         <is>
           <t>Команда INSERT INTO используется для добавления одной или нескольких строк в таблицу.</t>
         </is>
@@ -751,15 +851,35 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
+          <t>UPDATE clients SET city = 'Москва' WHERE id = 7;</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>Для клиента с ID 7 установить город "Москва".</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>UPDATE clients SET city = 'Москва' WHERE clients.id = 7;</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>Обновить город на "Москва" у клиента номер 7.</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>UPDATE clients SET city = 'Москва' WHERE id = 7;</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
           <t>CREATE TABLE clients(id INT, name VARCHAR(100), city VARCHAR(50));</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>UPDATE clients SET city = 'Москва' WHERE id = 7;</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
+      <c r="O6" t="inlineStr">
         <is>
           <t>Команда UPDATE используется для изменения существующих записей в таблице.</t>
         </is>
@@ -806,15 +926,35 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
+          <t>SELECT c.name, o.order_id FROM clients c JOIN orders o ON c.id = o.client_id;</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>Вывести имена клиентов и номера их заказов.</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>SELECT clients.name, orders.order_id FROM clients JOIN orders ON clients.id = orders.client_id;</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>Соедини таблицы клиентов и заказов по ID.</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>SELECT c.name, o.order_id FROM clients AS c INNER JOIN orders AS o ON c.id = o.client_id;</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
           <t>CREATE TABLE clients(id INT, name VARCHAR(50)); CREATE TABLE orders(order_id INT, client_id INT);</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>SELECT c.name, o.order_id FROM clients c JOIN orders o ON c.id = o.client_id;</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
+      <c r="O7" t="inlineStr">
         <is>
           <t>INNER JOIN используется для выборки записей, имеющих совпадающие значения в обеих таблицах.</t>
         </is>
@@ -861,15 +1001,35 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
+          <t>SELECT c.name, o.order_id FROM clients c LEFT JOIN orders o ON c.id = o.client_id;</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>Показать всех клиентов и соответствующие им заказы.</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>SELECT c.name, o.order_id FROM clients AS c LEFT OUTER JOIN orders AS o ON c.id = o.client_id;</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>Для каждого клиента найти его заказы.</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>SELECT clients.name, orders.order_id FROM clients LEFT JOIN orders ON clients.id = orders.client_id;</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
           <t>CREATE TABLE clients(id INT, name VARCHAR(50)); CREATE TABLE orders(order_id INT, client_id INT);</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>SELECT c.name, o.order_id FROM clients c LEFT JOIN orders o ON c.id = o.client_id;</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
+      <c r="O8" t="inlineStr">
         <is>
           <t>LEFT JOIN возвращает все записи из левой таблицы и совпадающие записи из правой таблицы.</t>
         </is>
@@ -916,15 +1076,35 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
+          <t>SELECT client_id, COUNT(order_id) as order_count FROM orders GROUP BY client_id;</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>Для каждого клиента найти количество его заказов.</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>SELECT client_id, COUNT(*) FROM orders GROUP BY client_id;</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>Сгруппировать заказы по клиентам и посчитать их число.</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>SELECT client_id, COUNT(order_id) FROM orders GROUP BY 1;</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
           <t>CREATE TABLE orders(order_id INT, client_id INT);</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>SELECT client_id, COUNT(order_id) as order_count FROM orders GROUP BY client_id;</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
+      <c r="O9" t="inlineStr">
         <is>
           <t>GROUP BY группирует строки с одинаковыми значениями в сводные строки.</t>
         </is>
@@ -971,15 +1151,35 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
+          <t>SELECT city, AVG(amount) as avg_amount FROM orders GROUP BY city;</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>Найти среднюю сумму заказа по городам.</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>SELECT city, AVG(amount) FROM orders GROUP BY city;</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>Сгруппировать по городам и вычислить среднюю стоимость.</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>SELECT city, AVG(amount) as average_order_value FROM orders GROUP BY city;</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
           <t>CREATE TABLE orders(order_id INT, city VARCHAR(50), amount DECIMAL(10,2));</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>SELECT city, AVG(amount) as avg_amount FROM orders GROUP BY city;</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
+      <c r="O10" t="inlineStr">
         <is>
           <t>Использование агрегатной функции AVG для расчета среднего значения.</t>
         </is>
@@ -1026,15 +1226,35 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
+          <t>SELECT name FROM clients WHERE id IN (SELECT client_id FROM orders);</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>Вывести клиентов, присутствующих в таблице заказов.</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>SELECT name FROM clients WHERE id IN (SELECT DISTINCT client_id FROM orders);</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>Покажи имена клиентов, у которых есть заказы.</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>SELECT c.name FROM clients c WHERE EXISTS (SELECT 1 FROM orders o WHERE o.client_id = c.id);</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
           <t>CREATE TABLE clients(id INT, name VARCHAR(50)); CREATE TABLE orders(order_id INT, client_id INT);</t>
         </is>
       </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>SELECT name FROM clients WHERE id IN (SELECT client_id FROM orders);</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
+      <c r="O11" t="inlineStr">
         <is>
           <t>Подзапрос используется для получения списка ID клиентов, которые затем используются для фильтрации основной таблицы.</t>
         </is>
@@ -1081,15 +1301,35 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
+          <t>SELECT *, ROW_NUMBER() OVER(PARTITION BY client_id ORDER BY order_date) as rn FROM orders;</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>Присвоить порядковый номер каждому заказу клиента по дате.</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>SELECT order_id, client_id, order_date, ROW_NUMBER() OVER(PARTITION BY client_id ORDER BY order_date) FROM orders;</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>Ранжировать заказы внутри каждого клиента.</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>SELECT *, ROW_NUMBER() OVER w as rn FROM orders WINDOW w AS (PARTITION BY client_id ORDER BY order_date);</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
           <t>CREATE TABLE orders(order_id INT, client_id INT, order_date DATE);</t>
         </is>
       </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>SELECT *, ROW_NUMBER() OVER(PARTITION BY client_id ORDER BY order_date) as rn FROM orders;</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
+      <c r="O12" t="inlineStr">
         <is>
           <t>ROW_NUMBER() присваивает уникальный номер каждой строке в рамках раздела (partition).</t>
         </is>
@@ -1136,15 +1376,35 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
+          <t>SELECT sale_date, amount, SUM(amount) OVER (ORDER BY sale_date) as cumulative_sum FROM sales;</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>Показать кумулятивную сумму продаж.</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>SELECT sale_date, amount, SUM(amount) OVER (ORDER BY sale_date ROWS BETWEEN UNBOUNDED PRECEDING AND CURRENT ROW) FROM sales;</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>Для каждой даты рассчитать общую сумму продаж до этой даты включительно.</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>SELECT s.sale_date, s.amount, SUM(s.amount) OVER (ORDER BY s.sale_date) FROM sales s;</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
           <t>CREATE TABLE sales(sale_date DATE, amount DECIMAL(10,2));</t>
         </is>
       </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>SELECT sale_date, amount, SUM(amount) OVER (ORDER BY sale_date) as cumulative_sum FROM sales;</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
+      <c r="O13" t="inlineStr">
         <is>
           <t>Оконная функция SUM с ORDER BY позволяет рассчитать сумму с накоплением.</t>
         </is>
@@ -1191,15 +1451,35 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
+          <t>WITH DepartmentCounts AS (SELECT department_id, COUNT(*) as employee_count FROM employees GROUP BY department_id) SELECT department_id FROM DepartmentCounts WHERE employee_count &gt; 5;</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>С помощью CTE посчитать сотрудников в отделах и отфильтровать те, где их больше 5.</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>WITH DepCounts (dep_id, emp_count) AS (SELECT department_id, COUNT(id) FROM employees GROUP BY department_id) SELECT dep_id FROM DepCounts WHERE emp_count &gt; 5;</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>Определить отделы, в которых работает более 5 человек, используя WITH.</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>WITH DepartmentCounts AS (SELECT department_id, COUNT(*) as employee_count FROM employees GROUP BY department_id) SELECT * FROM DepartmentCounts WHERE employee_count &gt; 5;</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
           <t>CREATE TABLE employees(id INT, department_id INT);</t>
         </is>
       </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>WITH DepartmentCounts AS (SELECT department_id, COUNT(*) as employee_count FROM employees GROUP BY department_id) SELECT department_id FROM DepartmentCounts WHERE employee_count &gt; 5;</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr">
+      <c r="O14" t="inlineStr">
         <is>
           <t>CTE (WITH clause) позволяет определить временный именованный набор результатов для использования в последующем запросе.</t>
         </is>
@@ -1246,15 +1526,35 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
+          <t>WITH RECURSIVE EmployeeHierarchy AS (SELECT id, name, manager_id, 0 as level FROM employees WHERE manager_id IS NULL UNION ALL SELECT e.id, e.name, e.manager_id, eh.level + 1 FROM employees e JOIN EmployeeHierarchy eh ON e.manager_id = eh.id) SELECT * FROM EmployeeHierarchy;</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>Построить дерево подчиненности сотрудников.</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>WITH RECURSIVE Subordinates AS (SELECT * FROM employees WHERE manager_id IS NULL UNION ALL SELECT e.* FROM employees e JOIN Subordinates s ON e.manager_id = s.id) SELECT * FROM Subordinates;</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>Используя рекурсивный запрос, отобразить всех подчиненных для каждого уровня.</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>WITH RECURSIVE EmployeeHierarchy(id, name, level) AS (SELECT id, name, 0 FROM employees WHERE manager_id IS NULL UNION ALL SELECT e.id, e.name, eh.level + 1 FROM employees e, EmployeeHierarchy eh WHERE e.manager_id = eh.id) SELECT * FROM EmployeeHierarchy;</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
           <t>CREATE TABLE employees(id INT, name VARCHAR(50), manager_id INT);</t>
         </is>
       </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>WITH RECURSIVE EmployeeHierarchy AS (SELECT id, name, manager_id, 0 as level FROM employees WHERE manager_id IS NULL UNION ALL SELECT e.id, e.name, e.manager_id, eh.level + 1 FROM employees e JOIN EmployeeHierarchy eh ON e.manager_id = eh.id) SELECT * FROM EmployeeHierarchy;</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr">
+      <c r="O15" t="inlineStr">
         <is>
           <t>Рекурсивный CTE используется для обхода иерархических или древовидных структур данных.</t>
         </is>
@@ -1301,15 +1601,35 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
+          <t>SELECT * FROM sales PIVOT (SUM(amount) FOR year IN (2020, 2021, 2022));</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>Сделать сводную таблицу продаж по годам для каждого продукта.</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>SELECT product, "2020", "2021", "2022" FROM sales PIVOT (SUM(amount) FOR year IN (2020, 2021, 2022));</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>Повернуть таблицу продаж, чтобы годы стали колонками.</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>SELECT * FROM (SELECT product, year, amount FROM sales) PIVOT (SUM(amount) FOR year IN (2020, 2021, 2022));</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
           <t>CREATE TABLE sales(product VARCHAR(50), year INT, amount INT);</t>
         </is>
       </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>SELECT * FROM sales PIVOT (SUM(amount) FOR year IN (2020, 2021, 2022));</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr">
+      <c r="O16" t="inlineStr">
         <is>
           <t>PIVOT поворачивает таблицу, преобразуя уникальные значения из одного столбца в несколько столбцов в выводе.</t>
         </is>
@@ -1356,15 +1676,35 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
+          <t>CREATE INDEX idx_addresses_city ON addresses(city);</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>Добавить индекс на поле `city` таблицы `addresses`.</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>CREATE INDEX ON addresses (city);</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>Проиндексировать столбец `city` в таблице `addresses`.</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>CREATE INDEX city_index ON addresses (city);</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
           <t>CREATE TABLE addresses(id INT, city VARCHAR(100), street VARCHAR(200));</t>
         </is>
       </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>CREATE INDEX idx_addresses_city ON addresses(city);</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr">
+      <c r="O17" t="inlineStr">
         <is>
           <t>Индексы используются для быстрого поиска строк с определенными значениями в столбце.</t>
         </is>
@@ -1411,15 +1751,35 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
+          <t>CREATE PROCEDURE AddEmployee(IN emp_name VARCHAR(50), IN dept_name VARCHAR(50)) BEGIN INSERT INTO employees(name, department) VALUES (emp_name, dept_name); END;</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>Написать процедуру, которая вставляет нового сотрудника.</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>CREATE OR REPLACE PROCEDURE AddNewEmployee(emp_name VARCHAR, dept_name VARCHAR) AS BEGIN INSERT INTO employees(name, department) VALUES (emp_name, dept_name); END;</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>Определить процедуру для регистрации нового работника.</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>CREATE PROCEDURE sp_AddEmployee(emp_name VARCHAR(50), dept_name VARCHAR(50)) BEGIN INSERT INTO employees(name, department) VALUES (emp_name, dept_name); END;</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
           <t>CREATE TABLE employees(id INT, name VARCHAR(50), department VARCHAR(50));</t>
         </is>
       </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>CREATE PROCEDURE AddEmployee(IN emp_name VARCHAR(50), IN dept_name VARCHAR(50)) BEGIN INSERT INTO employees(name, department) VALUES (emp_name, dept_name); END;</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr">
+      <c r="O18" t="inlineStr">
         <is>
           <t>Хранимые процедуры позволяют инкапсулировать логику на стороне сервера базы данных.</t>
         </is>
@@ -1466,15 +1826,35 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
+          <t>CREATE TRIGGER before_product_update BEFORE UPDATE ON products FOR EACH ROW BEGIN INSERT INTO price_log(product_id, old_price, change_date) VALUES (OLD.id, OLD.price, NOW()); END;</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>Определить триггер на обновление цен в `products` для логирования.</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>CREATE TRIGGER LogPriceChange BEFORE UPDATE ON products FOR EACH ROW EXECUTE FUNCTION log_price_change();</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>Написать триггер, который срабатывает до изменения цены продукта.</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>CREATE TRIGGER trg_products_update_log BEFORE UPDATE ON products FOR EACH ROW BEGIN INSERT INTO price_log(product_id, old_price) VALUES (OLD.id, OLD.price); END;</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
           <t>CREATE TABLE products(id INT, price DECIMAL(10,2)); CREATE TABLE price_log(product_id INT, old_price DECIMAL(10,2), change_date DATE);</t>
         </is>
       </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>CREATE TRIGGER before_product_update BEFORE UPDATE ON products FOR EACH ROW BEGIN INSERT INTO price_log(product_id, old_price, change_date) VALUES (OLD.id, OLD.price, NOW()); END;</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr">
+      <c r="O19" t="inlineStr">
         <is>
           <t>Триггеры - это специальные процедуры, которые автоматически выполняются в ответ на определенные события (INSERT, UPDATE, DELETE).</t>
         </is>
@@ -1521,15 +1901,35 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>CREATE TABLE accounts(id VARCHAR(1), balance DECIMAL(10,2));</t>
+          <t>START TRANSACTION; UPDATE accounts SET balance = balance - 100 WHERE id = 'A'; UPDATE accounts SET balance = balance + 100 WHERE id = 'B'; COMMIT;</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>START TRANSACTION; UPDATE accounts SET balance = balance - 100 WHERE id = 'A'; UPDATE accounts SET balance = balance + 100 WHERE id = 'B'; COMMIT;</t>
+          <t>Выполнить атомарный перевод средств между счетами A и B.</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
+        <is>
+          <t>BEGIN; UPDATE accounts SET balance = balance - 100 WHERE id = 'A'; UPDATE accounts SET balance = balance + 100 WHERE id = 'B'; COMMIT;</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>Обернуть в транзакцию операции по списанию со счета A и зачислению на счет B.</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>BEGIN TRANSACTION; UPDATE accounts SET balance = balance - 100.00 WHERE id = 'A'; UPDATE accounts SET balance = balance + 100.00 WHERE id = 'B'; COMMIT TRANSACTION;</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>CREATE TABLE accounts(id VARCHAR(1), balance DECIMAL(10,2)); INSERT INTO accounts VALUES ('A', 1000), ('B', 500);</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
         <is>
           <t>Транзакции гарантируют, что серия операций будет выполнена как единое целое (атомарно).</t>
         </is>
@@ -1576,15 +1976,35 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
+          <t>EXPLAIN SELECT * FROM clients WHERE city = 'Москва';</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>Показать, как база данных будет выполнять запрос по поиску клиентов из Москвы.</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>EXPLAIN ANALYZE SELECT * FROM clients WHERE city = 'Москва';</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>Проанализировать план запроса для выборки клиентов по городу "Москва".</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>EXPLAIN (FORMAT JSON) SELECT * FROM clients WHERE city = 'Москва';</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
           <t>CREATE TABLE clients(id INT, name VARCHAR(100), city VARCHAR(50));</t>
         </is>
       </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>EXPLAIN SELECT * FROM clients WHERE city = 'Москва';</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr">
+      <c r="O21" t="inlineStr">
         <is>
           <t>Команда EXPLAIN показывает, как база данных собирается выполнить запрос, что помогает находить узкие места в производительности.</t>
         </is>
